--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team Rules" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Team Rules</t>
   </si>
@@ -79,9 +79,6 @@
     <t>SAD</t>
   </si>
   <si>
-    <t>Cùng vẽ và thống nhất Context Digrams</t>
-  </si>
-  <si>
     <t>Thống nhất Use-cases, Bussiness Constrains, Technical Constrains</t>
   </si>
   <si>
@@ -104,6 +101,35 @@
   </si>
   <si>
     <t>Chia vẽ C&amp;C View</t>
+  </si>
+  <si>
+    <t>Thứ ba
+22/5/2012</t>
+  </si>
+  <si>
+    <t>1 giờ</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>Review Team Assignment 3</t>
+  </si>
+  <si>
+    <t>Read Lecture 18 
+Consume Other Team Assigment 3</t>
+  </si>
+  <si>
+    <t>So sánh giữa 2 bài team cũ và mới xem đã rút ra được kinh nghiệm gì, bổ sung thêm được metric nào, bỏ metric nào không cần thiết không đúng</t>
+  </si>
+  <si>
+    <t>Viết strengths and weaknesses of the Viking project’s metrics</t>
+  </si>
+  <si>
+    <t>Choose the best and Update the GQM models</t>
+  </si>
+  <si>
+    <t>Cùng vẽ và thống nhất Context Diagrams</t>
   </si>
 </sst>
 </file>
@@ -163,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -225,99 +251,44 @@
       <left style="medium">
         <color theme="4" tint="-0.499984740745262"/>
       </left>
-      <right/>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -407,6 +378,212 @@
       </top>
       <bottom style="medium">
         <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -415,32 +592,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,43 +662,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -846,7 +1061,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -855,160 +1070,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1040,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,143 +1269,195 @@
     <col min="6" max="6" width="43.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="29" t="s">
+    <row r="1" spans="1:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="7"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="22" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="23" t="s">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="21"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="7"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="15" t="s">
+    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="21"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="19" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="21"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="7"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="22" t="s">
+      <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="20" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="7"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="22" t="s">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="7"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="22" t="s">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="21"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="22" t="s">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="23" t="s">
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+      <c r="B13" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="C13" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="35"/>
+    </row>
+    <row r="15" spans="1:6" ht="57" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="35"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="22"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="36"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="C3:C12"/>
     <mergeCell ref="B3:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Team Rules</t>
   </si>
@@ -130,6 +130,19 @@
   </si>
   <si>
     <t>Cùng vẽ và thống nhất Context Diagrams</t>
+  </si>
+  <si>
+    <t>Công việc sau buổi họp</t>
+  </si>
+  <si>
+    <t>Huy vẽ lại</t>
+  </si>
+  <si>
+    <t>Hiệp vẽ lại</t>
+  </si>
+  <si>
+    <t>Đạt nghiên cứu tactics của Sercurity và Useability
+Nếu chọn Sercurity thì tactics của nó và Performance sử dụng như thế nào</t>
   </si>
 </sst>
 </file>
@@ -633,23 +646,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -662,33 +699,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -698,13 +711,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1098,43 +1111,43 @@
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -1163,64 +1176,64 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -1255,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,16 +1280,17 @@
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="47.140625" customWidth="1"/>
     <col min="6" max="6" width="43.7109375" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
@@ -1292,15 +1306,18 @@
       <c r="F2" s="14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="G2" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="33" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -1310,19 +1327,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="42"/>
       <c r="C4" s="39"/>
-      <c r="D4" s="26"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="21"/>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="42"/>
       <c r="C5" s="39"/>
-      <c r="D5" s="27"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
@@ -1330,10 +1347,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
+    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="42"/>
       <c r="C6" s="39"/>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="36" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="12" t="s">
@@ -1343,109 +1360,118 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
+    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+      <c r="B7" s="42"/>
       <c r="C7" s="39"/>
-      <c r="D7" s="26"/>
+      <c r="D7" s="34"/>
       <c r="E7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
+      <c r="G7" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="42"/>
       <c r="C8" s="39"/>
-      <c r="D8" s="26"/>
+      <c r="D8" s="34"/>
       <c r="E8" s="10" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="42"/>
       <c r="C9" s="39"/>
-      <c r="D9" s="26"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="10" t="s">
         <v>24</v>
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="42"/>
       <c r="C10" s="39"/>
-      <c r="D10" s="26"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="10" t="s">
         <v>25</v>
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="42"/>
       <c r="C11" s="39"/>
-      <c r="D11" s="26"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="10" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29"/>
+      <c r="G11" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="43"/>
       <c r="C12" s="40"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="23" t="s">
+      <c r="D12" s="37"/>
+      <c r="E12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="24"/>
-    </row>
-    <row r="13" spans="1:6" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="41" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="18"/>
+      <c r="B13" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="34" t="s">
+      <c r="F13" s="24" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="32" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="35"/>
-    </row>
-    <row r="15" spans="1:6" ht="57" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="31" t="s">
+      <c r="F14" s="25"/>
+    </row>
+    <row r="15" spans="1:7" ht="57" x14ac:dyDescent="0.25">
+      <c r="A15" s="18"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="35"/>
-    </row>
-    <row r="16" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="33" t="s">
+      <c r="F15" s="25"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="36"/>
+      <c r="F16" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Team Rules</t>
   </si>
@@ -143,13 +143,27 @@
   <si>
     <t>Đạt nghiên cứu tactics của Sercurity và Useability
 Nếu chọn Sercurity thì tactics của nó và Performance sử dụng như thế nào</t>
+  </si>
+  <si>
+    <t>Bàn tiếp về quy trình của dự án</t>
+  </si>
+  <si>
+    <t>Mọi người xem file trả lời của thầy Phụng trên svn trước, mai cùng bàn
+Phúc ráng có bài tham khảo của các nhóm trước khi họp</t>
+  </si>
+  <si>
+    <t>Thứ 4
+23/5/2012</t>
+  </si>
+  <si>
+    <t>9 giờ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +201,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -202,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -365,21 +387,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="4" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -595,6 +602,157 @@
         <color theme="3" tint="-0.499984740745262"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </left>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </top>
       <bottom style="medium">
         <color theme="3" tint="-0.499984740745262"/>
       </bottom>
@@ -605,22 +763,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -634,42 +781,38 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -678,46 +821,87 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1111,43 +1295,43 @@
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -1176,64 +1360,64 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -1268,10 +1452,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,195 +1467,229 @@
     <col min="7" max="7" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+    <row r="1" spans="1:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+    <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="33" t="s">
+      <c r="D3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="43" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="10" t="s">
+      <c r="G3" s="38"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="35"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="42"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="11" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="38"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="35"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="45" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="36" t="s">
+      <c r="G5" s="39"/>
+    </row>
+    <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B6" s="35"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="46" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="57" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="10" t="s">
+      <c r="G6" s="40"/>
+    </row>
+    <row r="7" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="B7" s="35"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="10" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="35"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="10" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="38"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="35"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="10" t="s">
+      <c r="F9" s="44"/>
+      <c r="G9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="35"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="10" t="s">
+      <c r="F10" s="44"/>
+      <c r="G10" s="38"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="35"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="44"/>
+      <c r="G11" s="41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="43"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="19" t="s">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="36"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="19" t="s">
+      <c r="F12" s="48"/>
+      <c r="G12" s="49" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="30" t="s">
+      <c r="H12" s="53"/>
+    </row>
+    <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="17" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="22" t="s">
+      <c r="G13" s="50"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:7" ht="57" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="21" t="s">
+      <c r="F14" s="18"/>
+      <c r="G14" s="51"/>
+    </row>
+    <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="25"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="23" t="s">
+      <c r="F15" s="18"/>
+      <c r="G15" s="51"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="26"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="52"/>
+    </row>
+    <row r="17" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="56"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
   <si>
     <t>Team Rules</t>
   </si>
@@ -157,6 +157,28 @@
   </si>
   <si>
     <t>9 giờ</t>
+  </si>
+  <si>
+    <t>Thanh vẽ Usecase, Context Diagram, gửi mail cho thầy Phụng thêm một số câu hỏi và confirm chức năng, QA, vẽ thử Physic perspective</t>
+  </si>
+  <si>
+    <t>Thứ 5
+24/5/2012</t>
+  </si>
+  <si>
+    <t>Xem hình vẽ của Huy</t>
+  </si>
+  <si>
+    <t>Review bài làm của Đạt</t>
+  </si>
+  <si>
+    <t>Đạt ráng làm xong trước ngày mai, để qua làm QA môn SAD nữa</t>
+  </si>
+  <si>
+    <t>Mọi người sẽ cùng làm cái Plan gửi cho ông thầy :-w</t>
+  </si>
+  <si>
+    <t>Hiệp nghiên cứu cái cáp quang gì đó, Thanh vẽ sơ rồi mai lên sửa chung</t>
   </si>
 </sst>
 </file>
@@ -224,7 +246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -745,25 +767,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color theme="3" tint="-0.499984740745262"/>
-      </right>
-      <top style="medium">
-        <color theme="3" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="medium">
-        <color theme="3" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -815,54 +824,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -894,14 +855,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1295,43 +1300,43 @@
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -1360,64 +1365,64 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -1452,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,145 +1492,145 @@
       <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="42" t="s">
+      <c r="F2" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="21" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="45" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="38"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="38"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="35"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="39"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="29" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="48" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="40"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="B7" s="35"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="41" t="s">
+      <c r="G7" s="25" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="27"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="44"/>
-      <c r="G8" s="38"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="27"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="44"/>
-      <c r="G9" s="38"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="27"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="44"/>
-      <c r="G10" s="38"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="27"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="44"/>
-      <c r="G11" s="41" t="s">
+      <c r="F11" s="28"/>
+      <c r="G11" s="25" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="36"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="30"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49" t="s">
+      <c r="F12" s="32"/>
+      <c r="G12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="H12" s="53"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="42" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1634,65 +1639,106 @@
       <c r="F13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G13" s="50"/>
+      <c r="G13" s="34"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
       <c r="F14" s="18"/>
-      <c r="G14" s="51"/>
+      <c r="G14" s="35"/>
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="18"/>
-      <c r="G15" s="51"/>
+      <c r="G15" s="35"/>
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
       <c r="F16" s="19"/>
-      <c r="G16" s="52"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G17" s="56"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
+      <c r="G17" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="38"/>
+    </row>
+    <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="7935" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team Rules" sheetId="1" r:id="rId1"/>
@@ -1459,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,15 +1737,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="C3:C12"/>
+    <mergeCell ref="B3:B12"/>
     <mergeCell ref="C18:C20"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="D6:D12"/>
-    <mergeCell ref="C3:C12"/>
-    <mergeCell ref="B3:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team Rules" sheetId="1" r:id="rId1"/>
-    <sheet name="Schedule" sheetId="2" r:id="rId2"/>
-    <sheet name="Meeting Context" sheetId="3" r:id="rId3"/>
+    <sheet name="Meeting Context" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>Team Rules</t>
   </si>
@@ -179,6 +178,25 @@
   </si>
   <si>
     <t>Hiệp nghiên cứu cái cáp quang gì đó, Thanh vẽ sơ rồi mai lên sửa chung</t>
+  </si>
+  <si>
+    <t>Thứ hai
+28/5/2012</t>
+  </si>
+  <si>
+    <t>Gặp thầy Phụng đặt câu hỏi và phân tích yêu cầu</t>
+  </si>
+  <si>
+    <t>Thanh: viết lại meeting Minus, Weekly Report, vẽ WBS
+Giang: Design User GUI bắt đầu từ ngày 30/5</t>
+  </si>
+  <si>
+    <t>Hiệp và Phúc: vẽ và mô tả Usecase đến hết ngày 31/5
+Giang: Design Giao diện đến hết ngày 30/5
+Đạt: miêu tả scenario đến hết ngày 29/5 và tactic đến khi thi
+Huy: miêu tả Module View đến hết ngày 29/5
+Hiệp: sau khi xong usecase thì qua vẽ và miêu tả C&amp;C
+Thanh: miêu tả Physic View</t>
   </si>
 </sst>
 </file>
@@ -867,6 +885,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -874,39 +925,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1445,22 +1463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,7 +1475,7 @@
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="5" max="5" width="47.140625" customWidth="1"/>
     <col min="6" max="6" width="43.7109375" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" customWidth="1"/>
+    <col min="7" max="7" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1500,13 +1506,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="42" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1518,9 +1524,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="46"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="43"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1528,9 +1534,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="54"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="47"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1540,9 +1546,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="48" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="45" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1554,9 +1560,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1568,9 +1574,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="54"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="46"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1578,9 +1584,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1588,9 +1594,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1598,9 +1604,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="43"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1610,9 +1616,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="55"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="49"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="46"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1624,13 +1630,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="53" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1643,9 +1649,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1654,9 +1660,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1665,9 +1671,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1695,10 +1701,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="53" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1708,10 +1714,11 @@
         <v>47</v>
       </c>
       <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1721,10 +1728,11 @@
       <c r="F19" s="38" t="s">
         <v>49</v>
       </c>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1734,9 +1742,42 @@
       <c r="F20" s="38" t="s">
         <v>51</v>
       </c>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="38" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="38" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="C3:C12"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Team Rules</t>
   </si>
@@ -197,6 +197,26 @@
 Huy: miêu tả Module View đến hết ngày 29/5
 Hiệp: sau khi xong usecase thì qua vẽ và miêu tả C&amp;C
 Thanh: miêu tả Physic View</t>
+  </si>
+  <si>
+    <t>Thứ tư 
+30/5/2012</t>
+  </si>
+  <si>
+    <t>Xem giao diện của Giang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thống nhất giao diện cho môn SEP
+</t>
+  </si>
+  <si>
+    <t>Review công việc của Thanh</t>
+  </si>
+  <si>
+    <t>Xem tactic của Đạt</t>
+  </si>
+  <si>
+    <t>Xem miêu tả Module View của Huy</t>
   </si>
 </sst>
 </file>
@@ -264,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -785,12 +805,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </right>
+      <top style="medium">
+        <color theme="3" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -885,6 +916,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,13 +955,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1463,10 +1503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,13 +1546,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="44" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1524,9 +1564,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="51"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="43"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1534,9 +1574,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="51"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="44"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1546,9 +1586,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="51"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="45" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1559,10 +1599,10 @@
       </c>
       <c r="G6" s="24"/>
     </row>
-    <row r="7" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="B7" s="51"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="43"/>
+    <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="53"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1574,9 +1614,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="51"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="43"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1584,9 +1624,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="51"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="43"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1594,9 +1634,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="51"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="43"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1604,9 +1644,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="51"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="43"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1616,9 +1656,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="52"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="46"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1630,13 +1670,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="42" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1649,9 +1689,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1660,9 +1700,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1671,9 +1711,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1701,10 +1741,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="53" t="s">
+      <c r="C18" s="42" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1717,8 +1757,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1731,8 +1771,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1744,11 +1784,11 @@
       </c>
       <c r="G20" s="38"/>
     </row>
-    <row r="21" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="53" t="s">
+    <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="53" t="s">
+      <c r="C21" s="42" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -1763,8 +1803,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -1774,8 +1814,70 @@
         <v>55</v>
       </c>
     </row>
+    <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+    </row>
+    <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D3:D5"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>Team Rules</t>
   </si>
@@ -218,12 +218,25 @@
   <si>
     <t>Xem miêu tả Module View của Huy</t>
   </si>
+  <si>
+    <t>Thứ sáu
+1/6/2012</t>
+  </si>
+  <si>
+    <t>8 giờ 30 ngày 701C</t>
+  </si>
+  <si>
+    <t>Gặp các thầy để báo cáo tình hình</t>
+  </si>
+  <si>
+    <t>Xem usecase của Hiệp và Phúc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +282,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222222"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -821,7 +840,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -910,15 +929,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -955,17 +992,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1358,43 +1390,43 @@
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -1423,64 +1455,64 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -1503,10 +1535,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1546,13 +1578,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="50" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1564,9 +1596,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="53"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1574,9 +1606,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="46"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1586,9 +1618,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="53"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="47" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="53" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1600,9 +1632,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="53"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="45"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1614,9 +1646,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="53"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="45"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1624,9 +1656,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="53"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1634,9 +1666,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="53"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="45"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1644,9 +1676,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="53"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="45"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1656,9 +1688,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="54"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="48"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1670,13 +1702,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="47" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1689,9 +1721,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1700,9 +1732,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1711,9 +1743,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1741,10 +1773,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="47" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1757,8 +1789,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1771,8 +1803,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1785,10 +1817,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="47" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -1803,8 +1835,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -1815,13 +1847,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="45" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -1831,9 +1863,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="58"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="46"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -1841,19 +1873,19 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="56" t="s">
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="42" t="s">
         <v>61</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="57" t="s">
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="45" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -1863,23 +1895,60 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="58"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="46"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
     </row>
+    <row r="28" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="63"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="63"/>
+      <c r="C30" s="41"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="63"/>
+      <c r="C31" s="41"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="63"/>
+      <c r="C32" s="41"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="61"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="61"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="61"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="C3:C12"/>
@@ -1889,6 +1958,12 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>Team Rules</t>
   </si>
@@ -230,6 +230,20 @@
   </si>
   <si>
     <t>Xem usecase của Hiệp và Phúc</t>
+  </si>
+  <si>
+    <t>Thứ hai
+4/6/2012</t>
+  </si>
+  <si>
+    <t>Đạt: dịch scenario hết tối nay, tactic hết tối 6/6, sequence hết tối chủ nhật
+Phúc + Hiệp: dịch usecase và kiểm tra hết tối 7/6
+Hiệp: mô tả C&amp;C đến hết tối 9/6</t>
+  </si>
+  <si>
+    <t>Phúc: Usecase đến hết tối 8/6
+Huy vẽ static đến tối 8/6
+Giang: GUI đến tối 7/6</t>
   </si>
 </sst>
 </file>
@@ -840,7 +854,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -929,75 +943,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1535,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,13 +1583,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="45" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1596,9 +1601,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="59"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1606,9 +1611,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="52"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1618,9 +1623,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="59"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="53" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="48" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1632,9 +1637,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="59"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="51"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1646,9 +1651,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="59"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="51"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1656,9 +1661,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="59"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1666,9 +1671,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="59"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="51"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1676,9 +1681,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="59"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="51"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1688,9 +1693,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="60"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1702,13 +1707,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C13" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="47" t="s">
+      <c r="D13" s="56" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1721,9 +1726,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1732,9 +1737,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1743,9 +1748,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1773,10 +1778,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C18" s="56" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1789,8 +1794,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1803,8 +1808,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1817,10 +1822,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="56" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -1835,8 +1840,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -1847,13 +1852,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="45" t="s">
+      <c r="D23" s="59" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -1863,9 +1868,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="46"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="60"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -1873,19 +1878,19 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="42" t="s">
+      <c r="B25" s="57"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
       <c r="F25" s="38"/>
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="45" t="s">
+      <c r="B26" s="57"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="59" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -1895,60 +1900,96 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="46"/>
+      <c r="B27" s="57"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="38"/>
       <c r="G27" s="38"/>
     </row>
-    <row r="28" spans="2:7" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="62" t="s">
+    <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="38" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="63"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="42" t="s">
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="58"/>
+      <c r="C29" s="58"/>
+      <c r="D29" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="38" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="63"/>
-      <c r="C30" s="41"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="63"/>
-      <c r="C31" s="41"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="63"/>
-      <c r="C32" s="41"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="56" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="41"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="41"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="61"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="61"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="61"/>
+      <c r="B41" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="C3:C12"/>
@@ -1958,12 +1999,6 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>Team Rules</t>
   </si>
@@ -244,6 +244,16 @@
     <t>Phúc: Usecase đến hết tối 8/6
 Huy vẽ static đến tối 8/6
 Giang: GUI đến tối 7/6</t>
+  </si>
+  <si>
+    <t>Thứ sáu
+8/6/2012</t>
+  </si>
+  <si>
+    <t>Tổng hợp usecase</t>
+  </si>
+  <si>
+    <t>Xem giao diện cần chỉnh sửa gì không</t>
   </si>
 </sst>
 </file>
@@ -854,7 +864,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -956,6 +966,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -989,19 +1014,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1543,7 +1556,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,13 +1596,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="50" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1601,9 +1614,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="46"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1611,9 +1624,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="54"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="47"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1623,9 +1636,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="48" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="53" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1637,9 +1650,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1651,9 +1664,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="54"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="46"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="51"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1661,9 +1674,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="51"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1671,9 +1684,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1681,9 +1694,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="51"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1693,9 +1706,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="55"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="49"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="54"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1707,13 +1720,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1726,9 +1739,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1737,9 +1750,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1748,9 +1761,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1778,10 +1791,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="45" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1794,8 +1807,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="57"/>
-      <c r="C19" s="57"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1808,8 +1821,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1822,10 +1835,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -1840,8 +1853,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -1852,13 +1865,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -1868,9 +1881,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="60"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -1878,9 +1891,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="57"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="60"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -1888,9 +1901,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="59" t="s">
+      <c r="B26" s="49"/>
+      <c r="C26" s="49"/>
+      <c r="D26" s="47" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -1900,9 +1913,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="60"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -1910,10 +1923,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="45" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -1926,8 +1939,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="58"/>
-      <c r="C29" s="58"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -1938,10 +1951,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -1954,8 +1967,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -1966,30 +1979,33 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="42"/>
+      <c r="B32" s="42" t="s">
+        <v>69</v>
+      </c>
       <c r="C32" s="42"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D32" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="41"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="41"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="C3:C12"/>
@@ -1999,6 +2015,16 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
   <si>
     <t>Team Rules</t>
   </si>
@@ -254,6 +254,21 @@
   </si>
   <si>
     <t>Xem giao diện cần chỉnh sửa gì không</t>
+  </si>
+  <si>
+    <t>Đạt: dịch tiếng anh tactic</t>
+  </si>
+  <si>
+    <t>Phúc: Usecase 
+Đạt: QA (tiếng anh)
+Hiệp: vẽ C&amp;C view, review usecase của Phúc</t>
+  </si>
+  <si>
+    <t>Thứ hai 
+11/6/2012</t>
+  </si>
+  <si>
+    <t>Gặp thầy confirm chức năng</t>
   </si>
 </sst>
 </file>
@@ -864,7 +879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -957,9 +972,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -972,15 +984,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1012,9 +1024,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1408,43 +1417,43 @@
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -1473,64 +1482,64 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -1556,7 +1565,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,13 +1605,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="49" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1614,9 +1623,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="59"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1624,9 +1633,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="52"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1636,9 +1645,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="59"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="53" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="52" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1650,9 +1659,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="59"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="51"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1664,9 +1673,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="59"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="51"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1674,9 +1683,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="59"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1684,9 +1693,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="59"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="51"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1694,9 +1703,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="59"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="51"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1706,9 +1715,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="60"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="54"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1720,13 +1729,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="44" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1739,9 +1748,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1750,9 +1759,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1761,9 +1770,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1791,10 +1800,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="44" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1807,8 +1816,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1821,8 +1830,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1835,10 +1844,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="44" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -1853,8 +1862,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -1865,10 +1874,10 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="44" t="s">
         <v>44</v>
       </c>
       <c r="D23" s="47" t="s">
@@ -1881,8 +1890,8 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="48"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
@@ -1891,8 +1900,8 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
       <c r="D25" s="48"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
@@ -1901,8 +1910,8 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
       <c r="D26" s="47" t="s">
         <v>16</v>
       </c>
@@ -1913,8 +1922,8 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="48"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
@@ -1923,10 +1932,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="44" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -1939,8 +1948,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -1951,10 +1960,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="44" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -1967,8 +1976,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -1978,34 +1987,73 @@
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="42" t="s">
+    <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="61" t="s">
+      <c r="C32" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E32" s="38" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="E33" s="40" t="s">
+      <c r="F32" s="38"/>
+      <c r="G32" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="41"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="41"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="22">
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="C3:C12"/>
@@ -2015,16 +2063,19 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D26:D27"/>
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B23:B27"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>Team Rules</t>
   </si>
@@ -269,6 +269,16 @@
   </si>
   <si>
     <t>Gặp thầy confirm chức năng</t>
+  </si>
+  <si>
+    <t>Thứ ba
+12/6/2012</t>
+  </si>
+  <si>
+    <t>Đạt sequences đến tối 15/6/2012
+Thanh: Xem ACDM, Physic, Hẹn thầy Huyên Ranking QA
+Huy: hỏi thầy Huyên và web server và database server
+Hiệp: C&amp;C</t>
   </si>
 </sst>
 </file>
@@ -978,52 +988,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1564,8 +1574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="F29" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,13 +1615,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="44" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1623,9 +1633,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="58"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1633,9 +1643,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="58"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1645,9 +1655,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="52" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1659,9 +1669,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="58"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1673,9 +1683,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="58"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="50"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1683,9 +1693,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="58"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1693,9 +1703,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="58"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="50"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1703,9 +1713,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="58"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="50"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1715,9 +1725,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="59"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1729,13 +1739,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="55" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1748,9 +1758,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1759,9 +1769,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1770,9 +1780,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1800,10 +1810,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1816,8 +1826,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1830,8 +1840,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1844,10 +1854,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -1862,8 +1872,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -1874,13 +1884,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -1890,9 +1900,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="48"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -1900,9 +1910,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="48"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -1910,9 +1920,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="58" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -1922,9 +1932,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="48"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -1932,10 +1942,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="55" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -1948,8 +1958,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -1960,10 +1970,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -1976,8 +1986,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -1988,13 +1998,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="55" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2006,9 +2016,9 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="45"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
@@ -2016,8 +2026,8 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2043,6 +2053,32 @@
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
     </row>
+    <row r="36" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="55" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="41"/>
     </row>
@@ -2053,7 +2089,22 @@
       <c r="B41" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="C3:C12"/>
@@ -2063,19 +2114,6 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
   <si>
     <t>Team Rules</t>
   </si>
@@ -279,6 +279,13 @@
 Thanh: Xem ACDM, Physic, Hẹn thầy Huyên Ranking QA
 Huy: hỏi thầy Huyên và web server và database server
 Hiệp: C&amp;C</t>
+  </si>
+  <si>
+    <t>Phúc sử lại Usecase đến tối T5 14/6
+Thanh: sửa QA, physic view
+Huy: sửa static view đếng sáng 13/6
+Giang giao diện đến tối T5 14/6
+Hiệp: C &amp; C view</t>
   </si>
 </sst>
 </file>
@@ -988,6 +995,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1019,21 +1041,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1574,8 +1581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F29" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F39" sqref="F38:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,13 +1622,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="49" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1633,9 +1640,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="53"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1643,9 +1650,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="46"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1655,9 +1662,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="53"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="47" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="52" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1669,9 +1676,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="53"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="45"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1683,9 +1690,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="53"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="45"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1693,9 +1700,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="53"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1703,9 +1710,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="53"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="45"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1713,9 +1720,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="53"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="45"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1725,9 +1732,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="54"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="48"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1739,13 +1746,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="44" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1758,9 +1765,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1769,9 +1776,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1780,9 +1787,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1810,10 +1817,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="44" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1826,8 +1833,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1840,8 +1847,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1854,10 +1861,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="44" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -1872,8 +1879,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -1884,13 +1891,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -1900,9 +1907,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="59"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -1910,9 +1917,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -1920,9 +1927,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="58" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -1932,9 +1939,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="59"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -1942,10 +1949,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="44" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -1958,8 +1965,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -1970,10 +1977,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="44" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -1986,8 +1993,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -1998,13 +2005,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="44" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2016,9 +2023,9 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
@@ -2026,8 +2033,8 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2054,10 +2061,10 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="44" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="38" t="s">
@@ -2069,15 +2076,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
+    <row r="37" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="39" t="s">
         <v>16</v>
       </c>
       <c r="E37" s="38" t="s">
         <v>75</v>
       </c>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="41"/>
@@ -2090,21 +2101,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="C3:C12"/>
@@ -2114,6 +2110,21 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
   <si>
     <t>Team Rules</t>
   </si>
@@ -286,6 +286,20 @@
 Huy: sửa static view đếng sáng 13/6
 Giang giao diện đến tối T5 14/6
 Hiệp: C &amp; C view</t>
+  </si>
+  <si>
+    <t>Thứ bảy
+15/6/2012</t>
+  </si>
+  <si>
+    <t>8 giờ 30</t>
+  </si>
+  <si>
+    <t>Sửa bài theo Comment của cô</t>
+  </si>
+  <si>
+    <t>Mọi người đọc trước những phần comment liên quan đến phần bài làm của mình, sửa trước rồi sẽ họp lại với nhóm
+Thanh có up cái tài liêu cô gửi về Project Plan theo ACDM trong folder Comment, Hiệp ở nhà xem trước nha</t>
   </si>
 </sst>
 </file>
@@ -995,52 +1009,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1581,8 +1595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F39" sqref="F38:F39"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1622,13 +1636,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="44" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1640,9 +1654,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="58"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1650,9 +1664,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="58"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1662,9 +1676,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="52" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1676,9 +1690,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="58"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1690,9 +1704,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="58"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="50"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1700,9 +1714,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="58"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1710,9 +1724,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="58"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="50"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1720,9 +1734,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="58"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="50"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1732,9 +1746,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="59"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1746,13 +1760,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="55" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1765,9 +1779,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1776,9 +1790,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1787,9 +1801,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1817,10 +1831,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1833,8 +1847,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1847,8 +1861,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1861,10 +1875,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -1879,8 +1893,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -1891,13 +1905,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -1907,9 +1921,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="48"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -1917,9 +1931,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="48"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -1927,9 +1941,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="58" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -1939,9 +1953,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="48"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -1949,10 +1963,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="55" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -1965,8 +1979,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -1977,10 +1991,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -1993,8 +2007,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -2005,13 +2019,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="55" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2023,9 +2037,9 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="45"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
@@ -2033,8 +2047,8 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2061,13 +2075,13 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E36" s="38"/>
@@ -2077,8 +2091,8 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="39" t="s">
         <v>16</v>
       </c>
@@ -2090,6 +2104,24 @@
         <v>78</v>
       </c>
     </row>
+    <row r="38" spans="2:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="G38" s="38"/>
+    </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="41"/>
     </row>
@@ -2101,6 +2133,21 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="C3:C12"/>
@@ -2110,21 +2157,6 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
   <si>
     <t>Team Rules</t>
   </si>
@@ -300,6 +300,12 @@
   <si>
     <t>Mọi người đọc trước những phần comment liên quan đến phần bài làm của mình, sửa trước rồi sẽ họp lại với nhóm
 Thanh có up cái tài liêu cô gửi về Project Plan theo ACDM trong folder Comment, Hiệp ở nhà xem trước nha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huy: static và C&amp;C, code, viết phần software cài đặt trên database server hay web server
+Đạt: Sequence đến sáng 16/6
+Hiệp: ACDM (Project Plan)
+</t>
   </si>
 </sst>
 </file>
@@ -1009,6 +1015,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1040,21 +1061,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1596,7 +1602,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1636,13 +1642,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="49" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1654,9 +1660,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="53"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1664,9 +1670,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="46"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1676,9 +1682,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="53"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="47" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="52" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1690,9 +1696,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="53"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="45"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1704,9 +1710,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="53"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="45"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1714,9 +1720,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="53"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1724,9 +1730,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="53"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="45"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1734,9 +1740,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="53"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="45"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1746,9 +1752,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="54"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="48"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1760,13 +1766,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="44" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1779,9 +1785,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1790,9 +1796,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1801,9 +1807,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1831,10 +1837,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="44" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1847,8 +1853,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1861,8 +1867,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1875,10 +1881,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="44" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -1893,8 +1899,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -1905,13 +1911,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -1921,9 +1927,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="59"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -1931,9 +1937,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -1941,9 +1947,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="58" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -1953,9 +1959,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="59"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -1963,10 +1969,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="44" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -1979,8 +1985,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -1991,10 +1997,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="44" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -2007,8 +2013,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -2019,13 +2025,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="44" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2037,9 +2043,9 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
@@ -2047,8 +2053,8 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2075,10 +2081,10 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="44" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -2091,8 +2097,8 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="39" t="s">
         <v>16</v>
       </c>
@@ -2120,7 +2126,9 @@
       <c r="F38" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="G38" s="38"/>
+      <c r="G38" s="38" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="41"/>
@@ -2133,21 +2141,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="C3:C12"/>
@@ -2157,6 +2150,21 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
   <si>
     <t>Team Rules</t>
   </si>
@@ -306,6 +306,38 @@
 Đạt: Sequence đến sáng 16/6
 Hiệp: ACDM (Project Plan)
 </t>
+  </si>
+  <si>
+    <t>Thứ hai 
+18/6/2012</t>
+  </si>
+  <si>
+    <t>Review bài làm của cả nhóm</t>
+  </si>
+  <si>
+    <t>Bắt đầu làm SAD và SDS:
++ Physic View và mô tả
++ Module View và mô tả
++ C&amp;C view và mô tả</t>
+  </si>
+  <si>
+    <t>Mọi người phân biệt giúp Thanh sequence trong tài liệu Architecture Document khác gì sequence trong tài liệu SDS mình đã vẽ trong môn PTTK</t>
+  </si>
+  <si>
+    <t>Huy báo cáo xem vẽ C&amp;C tới đâu rồi, đã mô tả chưa?
+Đạt sửa QA xong chưa? Báo Thanh bik
+Hiệp nghiên cứu hỏi cô tới đâu rồi? Có cần nhóm giúp không?</t>
+  </si>
+  <si>
+    <t>Thanh mô tả Physic View
+Huy mô tả Module View, C&amp;C, chỉ Đạt vẽ sequence trong tài liệu Architecture Documen nếu khác tài liệu SDS.
+Phúc tiếp tục chú thích cho Activity Diagrams và vẽ sequence cho tài liệu SDS
+Giang tranh thủ code luôn, đừng chăm giao diện nhiều quá sợ không kịp</t>
+  </si>
+  <si>
+    <t>Huy tổng hợp phần Module view và sequence của Đat vào file ADD luôn. 
+Huy và Giang cần code thì kéo Đạt vào phụ.
+Hiệp: ACDM (Project Plan)</t>
   </si>
 </sst>
 </file>
@@ -1015,52 +1047,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1601,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1642,13 +1674,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="44" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1660,9 +1692,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="58"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1670,9 +1702,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="58"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1682,9 +1714,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="52" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1696,9 +1728,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="58"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1710,9 +1742,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="58"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="50"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1720,9 +1752,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="58"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1730,9 +1762,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="58"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="50"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1740,9 +1772,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="58"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="50"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1752,9 +1784,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="59"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1766,13 +1798,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="55" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1785,9 +1817,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1796,9 +1828,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1807,9 +1839,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1837,10 +1869,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1853,8 +1885,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1867,8 +1899,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1881,10 +1913,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -1899,8 +1931,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -1911,13 +1943,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -1927,9 +1959,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="48"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -1937,9 +1969,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="48"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -1947,9 +1979,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="58" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -1959,9 +1991,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="48"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -1969,10 +2001,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="55" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -1985,8 +2017,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -1997,10 +2029,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -2013,8 +2045,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -2025,13 +2057,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="55" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2043,9 +2075,9 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="45"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
@@ -2053,8 +2085,8 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2081,10 +2113,10 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="55" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -2097,8 +2129,8 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="39" t="s">
         <v>16</v>
       </c>
@@ -2130,17 +2162,64 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="41"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="41"/>
+    <row r="39" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="38" t="s">
+        <v>87</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="C3:C12"/>
@@ -2150,21 +2229,6 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -329,15 +329,15 @@
 Hiệp nghiên cứu hỏi cô tới đâu rồi? Có cần nhóm giúp không?</t>
   </si>
   <si>
+    <t>Huy tổng hợp phần Module view và sequence của Đat vào file ADD luôn, technical constrains 
+Huy và Giang cần code thì kéo Đạt vào phụ.
+Hiệp: ACDM (Project Plan)</t>
+  </si>
+  <si>
     <t>Thanh mô tả Physic View
 Huy mô tả Module View, C&amp;C, chỉ Đạt vẽ sequence trong tài liệu Architecture Documen nếu khác tài liệu SDS.
-Phúc tiếp tục chú thích cho Activity Diagrams và vẽ sequence cho tài liệu SDS
+Phúc tiếp tục chú thích cho Activity Diagrams sửa usecse phân mức độ ưu tiên cho use-case
 Giang tranh thủ code luôn, đừng chăm giao diện nhiều quá sợ không kịp</t>
-  </si>
-  <si>
-    <t>Huy tổng hợp phần Module view và sequence của Đat vào file ADD luôn. 
-Huy và Giang cần code thì kéo Đạt vào phụ.
-Hiệp: ACDM (Project Plan)</t>
   </si>
 </sst>
 </file>
@@ -1047,6 +1047,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1078,21 +1093,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1634,7 +1634,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,13 +1674,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="49" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1692,9 +1692,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="53"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1702,9 +1702,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="46"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1714,9 +1714,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="53"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="47" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="52" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1728,9 +1728,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="53"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="45"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="50"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1742,9 +1742,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="53"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="45"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="50"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1752,9 +1752,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="53"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="50"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1762,9 +1762,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="53"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="45"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="50"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1772,9 +1772,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="53"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="45"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1784,9 +1784,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="54"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="48"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="53"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1798,13 +1798,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="44" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1817,9 +1817,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1828,9 +1828,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1839,9 +1839,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1869,10 +1869,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="44" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1885,8 +1885,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1899,8 +1899,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1913,10 +1913,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="44" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -1931,8 +1931,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -1943,13 +1943,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -1959,9 +1959,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="59"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -1969,9 +1969,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -1979,9 +1979,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="58" t="s">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -1991,9 +1991,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="59"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -2001,10 +2001,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="44" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -2017,8 +2017,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -2029,10 +2029,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="44" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -2045,8 +2045,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -2057,13 +2057,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="44" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2075,9 +2075,9 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="45"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
@@ -2085,8 +2085,8 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2113,10 +2113,10 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="44" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -2129,8 +2129,8 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="39" t="s">
         <v>16</v>
       </c>
@@ -2163,10 +2163,10 @@
       </c>
     </row>
     <row r="39" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="44" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="38" t="s">
@@ -2179,12 +2179,12 @@
         <v>88</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
       <c r="D40" s="38" t="s">
         <v>16</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>87</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
@@ -2203,23 +2203,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="C3:C12"/>
@@ -2229,6 +2212,23 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -1047,52 +1047,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1633,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,13 +1674,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="44" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1692,9 +1692,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="58"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1702,9 +1702,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="58"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1714,9 +1714,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="58"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="52" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1728,9 +1728,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="58"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="45"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1742,9 +1742,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="58"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="50"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="45"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1752,9 +1752,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="58"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="45"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1762,9 +1762,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="58"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="50"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1772,9 +1772,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="58"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="50"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="45"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1784,9 +1784,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="59"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="53"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="48"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1798,13 +1798,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="44" t="s">
+      <c r="C13" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="55" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1817,9 +1817,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1828,9 +1828,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1839,9 +1839,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1869,10 +1869,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1885,8 +1885,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1899,8 +1899,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1913,10 +1913,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="44" t="s">
+      <c r="C21" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -1931,8 +1931,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -1943,13 +1943,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="58" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -1959,9 +1959,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="48"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -1969,9 +1969,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="48"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -1979,9 +1979,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="47" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="58" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -1991,9 +1991,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="48"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -2001,10 +2001,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="44" t="s">
+      <c r="C28" s="55" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -2017,8 +2017,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -2029,10 +2029,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="44" t="s">
+      <c r="C30" s="55" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -2045,8 +2045,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -2057,13 +2057,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="44" t="s">
+      <c r="C32" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="44" t="s">
+      <c r="D32" s="55" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2075,9 +2075,9 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="45"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
@@ -2085,8 +2085,8 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2113,10 +2113,10 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="44" t="s">
+      <c r="C36" s="55" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -2129,8 +2129,8 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="45"/>
-      <c r="C37" s="45"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="39" t="s">
         <v>16</v>
       </c>
@@ -2163,10 +2163,10 @@
       </c>
     </row>
     <row r="39" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="55" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="38" t="s">
@@ -2183,8 +2183,8 @@
       </c>
     </row>
     <row r="40" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="38" t="s">
         <v>16</v>
       </c>
@@ -2203,6 +2203,23 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="C3:C12"/>
@@ -2212,23 +2229,6 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
   <si>
     <t>Team Rules</t>
   </si>
@@ -339,12 +339,31 @@
 Phúc tiếp tục chú thích cho Activity Diagrams sửa usecse phân mức độ ưu tiên cho use-case
 Giang tranh thủ code luôn, đừng chăm giao diện nhiều quá sợ không kịp</t>
   </si>
+  <si>
+    <t>Thứ hai 
+25/6/2012</t>
+  </si>
+  <si>
+    <t>Thống nhất các quy tắc trong database</t>
+  </si>
+  <si>
+    <t>Thống nhất các trường dữ liệu để Thanh vẽ datamodel, rồi nộp bản nháp SAD và SDS cho thầy Hùng Anh
+Đạt: chắc chắn ngày thứ hai này phải có sequence cho Thanh</t>
+  </si>
+  <si>
+    <t>Tổng kết nộp bản nháp cho thầy Hùng Anh
+Review tiến độ</t>
+  </si>
+  <si>
+    <t>Tổng kết nộp bản nháp cho cô
+Review tiến độ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,12 +409,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF222222"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -948,7 +961,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1040,13 +1053,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1078,21 +1105,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1486,43 +1498,43 @@
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
@@ -1551,64 +1563,64 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="43"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
@@ -1631,10 +1643,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F45" sqref="F44:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1674,13 +1686,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1692,9 +1704,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="53"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1702,9 +1714,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="53"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="46"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1714,9 +1726,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="53"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="47" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="51" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1728,9 +1740,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="53"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="45"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1742,9 +1754,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="53"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="45"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1752,9 +1764,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="53"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="45"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1762,9 +1774,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="53"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="45"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1772,9 +1784,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="53"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="45"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1784,9 +1796,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="54"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="48"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1798,13 +1810,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="43" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1817,9 +1829,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1828,9 +1840,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1839,9 +1851,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1869,10 +1881,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1885,8 +1897,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1899,8 +1911,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1913,10 +1925,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -1931,8 +1943,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -1943,13 +1955,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="46" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -1959,9 +1971,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="59"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="47"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -1969,9 +1981,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="59"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -1979,9 +1991,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="58" t="s">
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
+      <c r="D26" s="46" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -1991,9 +2003,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="59"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -2001,10 +2013,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -2017,8 +2029,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -2029,10 +2041,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -2045,8 +2057,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -2057,13 +2069,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2075,9 +2087,9 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
@@ -2085,8 +2097,8 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2113,10 +2125,10 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -2129,8 +2141,8 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="39" t="s">
         <v>16</v>
       </c>
@@ -2163,10 +2175,10 @@
       </c>
     </row>
     <row r="39" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="C39" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="38" t="s">
@@ -2183,8 +2195,8 @@
       </c>
     </row>
     <row r="40" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="38" t="s">
         <v>16</v>
       </c>
@@ -2198,28 +2210,42 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="41"/>
+    <row r="41" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>80</v>
+      </c>
+      <c r="D41" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D23:D25"/>
-    <mergeCell ref="C23:C27"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
+  <mergeCells count="28">
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="D6:D12"/>
     <mergeCell ref="C3:C12"/>
@@ -2229,6 +2255,23 @@
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
     <mergeCell ref="D13:D16"/>
+    <mergeCell ref="D23:D25"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
   <si>
     <t>Team Rules</t>
   </si>
@@ -357,6 +357,21 @@
   <si>
     <t>Tổng kết nộp bản nháp cho cô
 Review tiến độ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thứ ba </t>
+  </si>
+  <si>
+    <t>Huy, Giang, Hiệp, Đạt sẽ gặp thầy Hùng Anh: thầy cần gặp những người code win và web. Đạt đi theo nghe để chuẩn bị cho sau này phụ Huy và giang, còn Hiệp theo quản lý deadline cho tụi nó.</t>
+  </si>
+  <si>
+    <t>Huy sừa ngay static, tối nay 25/6 đưa Thanh
+Đạt: vẽ sequence tỉm hiểu vẽ bao nhiêu loại (high level, detail), vẽ cho từng chức năng, có cả luồng chính luồng phụ</t>
+  </si>
+  <si>
+    <t>Đạt xem còn sửa gì sequence hay thêm luồng phụ làm xong liền tối nay
+Hiệp dịch dùm thanh bên tài liệu Architect Driver
+Hiệp vào mail của Thanh xem cô có comment j phân cho cả nhóm sửa</t>
   </si>
 </sst>
 </file>
@@ -1643,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F45" sqref="F44:F45"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,7 +2196,7 @@
       <c r="C39" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="D39" s="38" t="s">
+      <c r="D39" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="38" t="s">
@@ -2197,7 +2212,7 @@
     <row r="40" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
-      <c r="D40" s="38" t="s">
+      <c r="D40" s="39" t="s">
         <v>16</v>
       </c>
       <c r="E40" s="38" t="s">
@@ -2217,7 +2232,7 @@
       <c r="C41" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="38" t="s">
+      <c r="D41" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E41" s="38" t="s">
@@ -2231,7 +2246,7 @@
     <row r="42" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="44"/>
       <c r="C42" s="44"/>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="39" t="s">
         <v>16</v>
       </c>
       <c r="E42" s="38" t="s">
@@ -2242,8 +2257,40 @@
         <v>93</v>
       </c>
     </row>
+    <row r="43" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38" t="s">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="30">
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B43:B44"/>
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="D3:D5"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -365,13 +365,14 @@
     <t>Huy, Giang, Hiệp, Đạt sẽ gặp thầy Hùng Anh: thầy cần gặp những người code win và web. Đạt đi theo nghe để chuẩn bị cho sau này phụ Huy và giang, còn Hiệp theo quản lý deadline cho tụi nó.</t>
   </si>
   <si>
-    <t>Huy sừa ngay static, tối nay 25/6 đưa Thanh
-Đạt: vẽ sequence tỉm hiểu vẽ bao nhiêu loại (high level, detail), vẽ cho từng chức năng, có cả luồng chính luồng phụ</t>
-  </si>
-  <si>
     <t>Đạt xem còn sửa gì sequence hay thêm luồng phụ làm xong liền tối nay
 Hiệp dịch dùm thanh bên tài liệu Architect Driver
 Hiệp vào mail của Thanh xem cô có comment j phân cho cả nhóm sửa</t>
+  </si>
+  <si>
+    <t>Huy sừa ngay static, tối nay 25/6 đưa Thanh
+Đạt: vẽ sequence tỉm hiểu vẽ bao nhiêu loại (high level, detail), vẽ cho từng chức năng, có cả luồng chính luồng phụ
+Đạt: xem dùm thanh mô hình Allocation View thì cải thiện dc Quality Attribue như thế nào</t>
   </si>
 </sst>
 </file>
@@ -1080,6 +1081,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1087,39 +1121,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1661,7 +1662,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="G48" sqref="G47:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,13 +1702,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="45" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1719,9 +1720,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="57"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="49"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1729,9 +1730,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="50"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1741,9 +1742,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="51" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="48" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1755,9 +1756,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="57"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1769,9 +1770,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="49"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1779,9 +1780,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="57"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="49"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1789,9 +1790,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="49"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1799,9 +1800,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="49"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1811,9 +1812,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1844,9 +1845,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1855,9 +1856,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1912,8 +1913,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1976,7 +1977,7 @@
       <c r="C23" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="46" t="s">
+      <c r="D23" s="57" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -1986,9 +1987,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="47"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -1996,9 +1997,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="47"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -2006,9 +2007,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -2018,9 +2019,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="47"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -2102,8 +2103,8 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="44"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
@@ -2112,8 +2113,8 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="45"/>
-      <c r="C34" s="45"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="43" t="s">
         <v>96</v>
       </c>
@@ -2272,7 +2273,7 @@
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
@@ -2284,11 +2285,25 @@
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
       <c r="G44" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B41:B42"/>
@@ -2305,20 +2320,6 @@
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -359,9 +359,6 @@
 Review tiến độ</t>
   </si>
   <si>
-    <t xml:space="preserve">Thứ ba </t>
-  </si>
-  <si>
     <t>Huy, Giang, Hiệp, Đạt sẽ gặp thầy Hùng Anh: thầy cần gặp những người code win và web. Đạt đi theo nghe để chuẩn bị cho sau này phụ Huy và giang, còn Hiệp theo quản lý deadline cho tụi nó.</t>
   </si>
   <si>
@@ -373,6 +370,10 @@
     <t>Huy sừa ngay static, tối nay 25/6 đưa Thanh
 Đạt: vẽ sequence tỉm hiểu vẽ bao nhiêu loại (high level, detail), vẽ cho từng chức năng, có cả luồng chính luồng phụ
 Đạt: xem dùm thanh mô hình Allocation View thì cải thiện dc Quality Attribue như thế nào</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thứ tư 
+27/6/2012 </t>
   </si>
 </sst>
 </file>
@@ -1075,12 +1076,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1112,15 +1122,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1662,7 +1663,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="G48" sqref="G47:G48"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,13 +1703,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1720,9 +1721,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="46"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1730,9 +1731,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="54"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="47"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1742,9 +1743,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="48" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="51" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1756,9 +1757,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1770,9 +1771,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="54"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="46"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1780,9 +1781,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1790,9 +1791,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1800,9 +1801,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1812,9 +1813,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="55"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="49"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1826,13 +1827,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1845,9 +1846,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1856,9 +1857,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1867,9 +1868,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1897,10 +1898,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="45" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1913,8 +1914,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1927,8 +1928,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1941,10 +1942,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -1959,8 +1960,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -1971,13 +1972,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="43" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -1987,9 +1988,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="58"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -1997,9 +1998,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="58"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -2007,9 +2008,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -2019,9 +2020,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="58"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -2029,10 +2030,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="45" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -2045,8 +2046,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -2057,10 +2058,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -2073,8 +2074,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -2085,13 +2086,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="45" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2103,9 +2104,9 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="44"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
@@ -2113,8 +2114,8 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2141,10 +2142,10 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="45" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -2157,8 +2158,8 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="39" t="s">
         <v>16</v>
       </c>
@@ -2191,10 +2192,10 @@
       </c>
     </row>
     <row r="39" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="45" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="39" t="s">
@@ -2211,8 +2212,8 @@
       </c>
     </row>
     <row r="40" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="39" t="s">
         <v>16</v>
       </c>
@@ -2227,10 +2228,10 @@
       </c>
     </row>
     <row r="41" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="45" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="39" t="s">
@@ -2245,8 +2246,8 @@
       </c>
     </row>
     <row r="42" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="39" t="s">
         <v>16</v>
       </c>
@@ -2259,51 +2260,37 @@
       </c>
     </row>
     <row r="43" spans="2:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="43" t="s">
+      <c r="B43" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="39" t="s">
         <v>16</v>
       </c>
       <c r="E43" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F43" s="38"/>
       <c r="G43" s="38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="39" t="s">
         <v>19</v>
       </c>
       <c r="E44" s="38"/>
       <c r="F44" s="38"/>
       <c r="G44" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B41:B42"/>
@@ -2320,6 +2307,20 @@
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875" activeTab="1"/>
@@ -10,12 +10,12 @@
     <sheet name="Team Rules" sheetId="1" r:id="rId1"/>
     <sheet name="Meeting Context" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
   <si>
     <t>Team Rules</t>
   </si>
@@ -374,6 +374,23 @@
   <si>
     <t xml:space="preserve">Thứ tư 
 27/6/2012 </t>
+  </si>
+  <si>
+    <t>thứ 7 
+30/6/2012</t>
+  </si>
+  <si>
+    <t>9h</t>
+  </si>
+  <si>
+    <t>Bàn về comment của cô, giao nhiệm vụ cho các members</t>
+  </si>
+  <si>
+    <t>Huy: sửa các View
+Phúc: Sửa use case Addnew store, contrainst, project overview(3.1)
+Đạt: Sửa sequence( ko có data access), QA rational(5.3.1), QA Scenario
+Giang: code tiếp
+Hiệp: Sửa Master plan,</t>
   </si>
 </sst>
 </file>
@@ -1076,52 +1093,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1660,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1703,13 +1720,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="45" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1721,9 +1738,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="57"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="49"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1731,9 +1748,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="50"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1743,9 +1760,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="51" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="48" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1757,9 +1774,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="57"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1771,9 +1788,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="49"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1781,9 +1798,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="57"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="49"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1791,9 +1808,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="49"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1801,9 +1818,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="49"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1813,9 +1830,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1827,13 +1844,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="43" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1846,9 +1863,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1857,9 +1874,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1868,9 +1885,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1898,10 +1915,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1914,8 +1931,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1928,8 +1945,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1942,10 +1959,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -1960,8 +1977,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -1972,13 +1989,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="57" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -1988,9 +2005,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="44"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -1998,9 +2015,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="44"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -2008,9 +2025,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="43" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -2020,9 +2037,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="44"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -2030,10 +2047,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -2046,8 +2063,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -2058,10 +2075,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -2074,8 +2091,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -2086,13 +2103,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2103,19 +2120,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="46"/>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
     </row>
-    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2125,7 +2142,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="39" t="s">
         <v>74</v>
       </c>
@@ -2141,11 +2158,11 @@
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
     </row>
-    <row r="36" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="45" t="s">
+    <row r="36" spans="1:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -2157,9 +2174,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
+    <row r="37" spans="1:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="39" t="s">
         <v>16</v>
       </c>
@@ -2171,7 +2188,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="39" t="s">
         <v>79</v>
       </c>
@@ -2191,11 +2208,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="45" t="s">
+    <row r="39" spans="1:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="39" t="s">
@@ -2211,9 +2228,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
+    <row r="40" spans="1:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="39" t="s">
         <v>16</v>
       </c>
@@ -2227,11 +2244,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="45" t="s">
+    <row r="41" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="39" t="s">
@@ -2245,9 +2262,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
+    <row r="42" spans="1:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="39" t="s">
         <v>16</v>
       </c>
@@ -2259,11 +2276,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="2:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="45" t="s">
+    <row r="43" spans="1:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="39" t="s">
@@ -2277,9 +2294,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
+    <row r="44" spans="1:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="39" t="s">
         <v>19</v>
       </c>
@@ -2289,8 +2306,41 @@
         <v>97</v>
       </c>
     </row>
+    <row r="45" spans="1:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D45" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B41:B42"/>
@@ -2307,20 +2357,6 @@
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
   <si>
     <t>Team Rules</t>
   </si>
@@ -376,10 +376,6 @@
 27/6/2012 </t>
   </si>
   <si>
-    <t>thứ 7 
-30/6/2012</t>
-  </si>
-  <si>
     <t>9h</t>
   </si>
   <si>
@@ -391,6 +387,35 @@
 Đạt: Sửa sequence( ko có data access), QA rational(5.3.1), QA Scenario
 Giang: code tiếp
 Hiệp: Sửa Master plan,</t>
+  </si>
+  <si>
+    <t>Thứ 7 
+30/6/2012</t>
+  </si>
+  <si>
+    <t>Mai họp tiếp để tổng kết tài liệu, mọi người làm mục nào thì up 1 file riêng ghi tên như sau "Sốmục_Nộidung_Tênngườisửa"</t>
+  </si>
+  <si>
+    <t>Hiệp: Master Plan - Schedule
+Hiệp: bỏ Use-case level 1 vào tài liệu
+Phúc: Mô tả Function theo template chức năng Bán hàng trong mục 4.2
+Đạt: Mục 5 - Quality Atrributes và Deployment View bên tài liệu AD
+Thanh: Miêu tả Entities
+Thanh: Mục 7 - Thêm bảng giới thiệu về Stake holder Ranking, Thêm các cột đánh giá chung và các tính điểm
+Thanh: Mục 8: thêm chú thích use-case, bỏ các chú thích view qua tài liệu AD   
+Huy sửa static view và dynamic
+Giang: code</t>
+  </si>
+  <si>
+    <t>Thứ ba
+3/7/2012</t>
+  </si>
+  <si>
+    <t>Thứ tư
+4/7/2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9giờ </t>
   </si>
 </sst>
 </file>
@@ -1093,12 +1118,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1130,15 +1164,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1677,10 +1702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,13 +1745,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1738,9 +1763,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="46"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1748,9 +1773,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="54"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="47"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1760,9 +1785,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="48" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="51" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1774,9 +1799,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1788,9 +1813,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="54"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="46"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1798,9 +1823,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1808,9 +1833,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1818,9 +1843,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1830,9 +1855,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="55"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="49"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1844,13 +1869,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1863,9 +1888,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1874,9 +1899,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1885,9 +1910,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1915,10 +1940,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="45" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1931,8 +1956,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1945,8 +1970,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1959,10 +1984,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -1977,8 +2002,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -1989,13 +2014,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="43" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -2005,9 +2030,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="58"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -2015,9 +2040,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="58"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -2025,9 +2050,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -2037,9 +2062,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="58"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -2047,10 +2072,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="45" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -2063,8 +2088,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -2075,10 +2100,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -2091,8 +2116,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -2103,13 +2128,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="45" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2120,19 +2145,19 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="44"/>
+    <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
       <c r="F33" s="38"/>
       <c r="G33" s="38"/>
     </row>
-    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
+    <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2142,7 +2167,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="39" t="s">
         <v>74</v>
       </c>
@@ -2158,11 +2183,11 @@
       <c r="F35" s="38"/>
       <c r="G35" s="38"/>
     </row>
-    <row r="36" spans="1:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="43" t="s">
+    <row r="36" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="45" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -2174,9 +2199,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
+    <row r="37" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="39" t="s">
         <v>16</v>
       </c>
@@ -2188,7 +2213,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="39" t="s">
         <v>79</v>
       </c>
@@ -2208,11 +2233,11 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="43" t="s">
+    <row r="39" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="45" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="39" t="s">
@@ -2228,9 +2253,9 @@
         <v>89</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
+    <row r="40" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="39" t="s">
         <v>16</v>
       </c>
@@ -2244,11 +2269,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="43" t="s">
+    <row r="41" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="45" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="39" t="s">
@@ -2262,9 +2287,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
+    <row r="42" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="39" t="s">
         <v>16</v>
       </c>
@@ -2276,11 +2301,11 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="43" t="s">
+    <row r="43" spans="2:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="39" t="s">
@@ -2294,9 +2319,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
+    <row r="44" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="39" t="s">
         <v>19</v>
       </c>
@@ -2306,41 +2331,55 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="38"/>
-      <c r="B45" s="38" t="s">
+    <row r="45" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="39" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="D45" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="38" t="s">
         <v>101</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="38" t="s">
-        <v>102</v>
       </c>
       <c r="F45" s="38"/>
       <c r="G45" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="39" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B41:B42"/>
@@ -2357,6 +2396,20 @@
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -396,26 +396,27 @@
     <t>Mai họp tiếp để tổng kết tài liệu, mọi người làm mục nào thì up 1 file riêng ghi tên như sau "Sốmục_Nộidung_Tênngườisửa"</t>
   </si>
   <si>
+    <t>Thứ ba
+3/7/2012</t>
+  </si>
+  <si>
+    <t>Thứ tư
+4/7/2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9giờ </t>
+  </si>
+  <si>
     <t>Hiệp: Master Plan - Schedule
 Hiệp: bỏ Use-case level 1 vào tài liệu
 Phúc: Mô tả Function theo template chức năng Bán hàng trong mục 4.2
+Phúc: Chỉnh sửa phần Description cho usecase Add new POST cho rõ hơn, chỉnh sửa luồng của usecase Add New Store
 Đạt: Mục 5 - Quality Atrributes và Deployment View bên tài liệu AD
 Thanh: Miêu tả Entities
 Thanh: Mục 7 - Thêm bảng giới thiệu về Stake holder Ranking, Thêm các cột đánh giá chung và các tính điểm
 Thanh: Mục 8: thêm chú thích use-case, bỏ các chú thích view qua tài liệu AD   
 Huy sửa static view và dynamic
 Giang: code</t>
-  </si>
-  <si>
-    <t>Thứ ba
-3/7/2012</t>
-  </si>
-  <si>
-    <t>Thứ tư
-4/7/2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9giờ </t>
   </si>
 </sst>
 </file>
@@ -1118,52 +1119,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1704,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,13 +1746,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="45" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1763,9 +1764,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="57"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="49"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1773,9 +1774,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="50"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1785,9 +1786,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="51" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="48" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1799,9 +1800,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="57"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1813,9 +1814,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="49"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1823,9 +1824,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="57"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="49"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1833,9 +1834,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="49"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1843,9 +1844,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="49"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1855,9 +1856,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1869,13 +1870,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="43" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1888,9 +1889,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1899,9 +1900,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1910,9 +1911,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1940,10 +1941,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1956,8 +1957,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1970,8 +1971,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1984,10 +1985,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -2002,8 +2003,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -2014,13 +2015,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="57" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -2030,9 +2031,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="44"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -2040,9 +2041,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="44"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -2050,9 +2051,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="43" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -2062,9 +2063,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="44"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -2072,10 +2073,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -2088,8 +2089,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -2100,10 +2101,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -2116,8 +2117,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -2128,13 +2129,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2146,9 +2147,9 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="46"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
@@ -2156,8 +2157,8 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2184,10 +2185,10 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -2200,8 +2201,8 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="39" t="s">
         <v>16</v>
       </c>
@@ -2234,10 +2235,10 @@
       </c>
     </row>
     <row r="39" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="39" t="s">
@@ -2254,8 +2255,8 @@
       </c>
     </row>
     <row r="40" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="39" t="s">
         <v>16</v>
       </c>
@@ -2270,10 +2271,10 @@
       </c>
     </row>
     <row r="41" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="39" t="s">
@@ -2288,8 +2289,8 @@
       </c>
     </row>
     <row r="42" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="39" t="s">
         <v>16</v>
       </c>
@@ -2302,10 +2303,10 @@
       </c>
     </row>
     <row r="43" spans="2:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="39" t="s">
@@ -2320,8 +2321,8 @@
       </c>
     </row>
     <row r="44" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="39" t="s">
         <v>19</v>
       </c>
@@ -2349,9 +2350,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="2:7" ht="186" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:7" ht="228.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C46" s="39" t="s">
         <v>44</v>
@@ -2364,15 +2365,15 @@
       </c>
       <c r="F46" s="38"/>
       <c r="G46" s="38" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="39" t="s">
         <v>107</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>108</v>
       </c>
       <c r="D47" s="39" t="s">
         <v>19</v>
@@ -2380,6 +2381,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B41:B42"/>
@@ -2396,20 +2411,6 @@
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="110">
   <si>
     <t>Team Rules</t>
   </si>
@@ -417,6 +417,11 @@
 Thanh: Mục 8: thêm chú thích use-case, bỏ các chú thích view qua tài liệu AD   
 Huy sửa static view và dynamic
 Giang: code</t>
+  </si>
+  <si>
+    <t>Đạt: QA Scenarios vô template, 
+Huy: mô tả cho xong View
+Hiệp: kiểm tra usecase của Phúc, constraint, sequence của Đạt</t>
   </si>
 </sst>
 </file>
@@ -1119,12 +1124,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1156,15 +1170,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1705,8 +1710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1746,13 +1751,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1764,9 +1769,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="46"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1774,9 +1779,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="54"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="47"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1786,9 +1791,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="48" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="51" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1800,9 +1805,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1814,9 +1819,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="54"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="46"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1824,9 +1829,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1834,9 +1839,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1844,9 +1849,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1856,9 +1861,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="55"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="49"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1870,13 +1875,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1889,9 +1894,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1900,9 +1905,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1911,9 +1916,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1941,10 +1946,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="45" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1957,8 +1962,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1971,8 +1976,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1985,10 +1990,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -2003,8 +2008,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -2015,13 +2020,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="43" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -2031,9 +2036,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="58"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -2041,9 +2046,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="58"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -2051,9 +2056,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -2063,9 +2068,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="58"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -2073,10 +2078,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="45" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -2089,8 +2094,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -2101,10 +2106,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -2117,8 +2122,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -2129,13 +2134,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="45" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2147,9 +2152,9 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="44"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
@@ -2157,8 +2162,8 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2185,10 +2190,10 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="45" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -2201,8 +2206,8 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="39" t="s">
         <v>16</v>
       </c>
@@ -2235,10 +2240,10 @@
       </c>
     </row>
     <row r="39" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="45" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="39" t="s">
@@ -2255,8 +2260,8 @@
       </c>
     </row>
     <row r="40" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="39" t="s">
         <v>16</v>
       </c>
@@ -2271,10 +2276,10 @@
       </c>
     </row>
     <row r="41" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="45" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="39" t="s">
@@ -2289,8 +2294,8 @@
       </c>
     </row>
     <row r="42" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="39" t="s">
         <v>16</v>
       </c>
@@ -2303,10 +2308,10 @@
       </c>
     </row>
     <row r="43" spans="2:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="39" t="s">
@@ -2321,8 +2326,8 @@
       </c>
     </row>
     <row r="44" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="39" t="s">
         <v>19</v>
       </c>
@@ -2368,33 +2373,24 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B47" s="39" t="s">
         <v>106</v>
       </c>
       <c r="C47" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="38" t="s">
         <v>19</v>
+      </c>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B41:B42"/>
@@ -2411,6 +2407,20 @@
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875" activeTab="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="112">
   <si>
     <t>Team Rules</t>
   </si>
@@ -422,6 +422,13 @@
     <t>Đạt: QA Scenarios vô template, 
 Huy: mô tả cho xong View
 Hiệp: kiểm tra usecase của Phúc, constraint, sequence của Đạt</t>
+  </si>
+  <si>
+    <t>Thứ năm
+5/7/2012</t>
+  </si>
+  <si>
+    <t>Mọi người hoàn thành xong phần bài được giao</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1124,53 +1131,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1708,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,13 +1761,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="45" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1769,9 +1779,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="57"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="49"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1779,9 +1789,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="50"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1791,9 +1801,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="51" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="48" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1805,9 +1815,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="57"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1819,9 +1829,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="49"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1829,9 +1839,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="57"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="49"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1839,9 +1849,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="49"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1849,9 +1859,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="49"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1861,9 +1871,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1875,13 +1885,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="43" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1894,9 +1904,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1905,9 +1915,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1916,9 +1926,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1946,10 +1956,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1962,8 +1972,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1976,8 +1986,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -1990,10 +2000,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -2008,8 +2018,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -2020,13 +2030,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="57" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -2036,9 +2046,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="44"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -2046,9 +2056,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="44"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -2056,9 +2066,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="43" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -2068,9 +2078,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="44"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -2078,10 +2088,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -2094,8 +2104,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -2106,10 +2116,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -2122,8 +2132,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -2134,13 +2144,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2152,9 +2162,9 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="46"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
@@ -2162,8 +2172,8 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2190,10 +2200,10 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -2206,8 +2216,8 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="39" t="s">
         <v>16</v>
       </c>
@@ -2240,10 +2250,10 @@
       </c>
     </row>
     <row r="39" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="39" t="s">
@@ -2260,8 +2270,8 @@
       </c>
     </row>
     <row r="40" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="39" t="s">
         <v>16</v>
       </c>
@@ -2276,10 +2286,10 @@
       </c>
     </row>
     <row r="41" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="39" t="s">
@@ -2294,8 +2304,8 @@
       </c>
     </row>
     <row r="42" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="39" t="s">
         <v>16</v>
       </c>
@@ -2308,10 +2318,10 @@
       </c>
     </row>
     <row r="43" spans="2:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="39" t="s">
@@ -2326,8 +2336,8 @@
       </c>
     </row>
     <row r="44" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="39" t="s">
         <v>19</v>
       </c>
@@ -2389,8 +2399,37 @@
         <v>109</v>
       </c>
     </row>
+    <row r="48" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="40"/>
+      <c r="F48" s="59" t="s">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B41:B42"/>
@@ -2407,20 +2446,6 @@
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="114">
   <si>
     <t>Team Rules</t>
   </si>
@@ -429,6 +429,18 @@
   </si>
   <si>
     <t>Mọi người hoàn thành xong phần bài được giao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giang + Huy code sale nhé, ráng xong, cho hun =)) </t>
+  </si>
+  <si>
+    <t>Đạt: dựa vào SAD và tài liệu Thanh đưa, xem sửa chữa
+Đạt: nghiên cứu tactics cho 2 ngày xong viết ra file word tiếng anh cho chị, deadline 7/7
+Đạt; đợi Huy sửa C&amp;C xong là vẽ sequence liền, cả high level và detail
+Phúc: tài liệu risk + change, nghiên cứu cho kĩ bao gồm quy trình, danh sách, mức độ ưu tiên, tham khảo các môn đã học và anh chị K14 (có j Thanh up tài liệu) 9/7
+Hiep: Phuc xong roi H review cho nó nhé, review usecase truoc (7/7) hen :x
+Huy: sửa 2 view (7/7)
+Giang: code như điên :))</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1045,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1131,12 +1143,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1169,18 +1190,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1718,10 +1727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1761,13 +1770,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1779,9 +1788,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="46"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1789,9 +1798,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="54"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="47"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1801,9 +1810,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="48" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="51" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1815,9 +1824,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1829,9 +1838,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="54"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="46"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1839,9 +1848,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1849,9 +1858,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1859,9 +1868,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1871,9 +1880,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="55"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="49"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1885,13 +1894,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1904,9 +1913,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1915,9 +1924,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1926,9 +1935,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1956,10 +1965,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="45" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1972,8 +1981,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1986,8 +1995,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -2000,10 +2009,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -2018,8 +2027,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -2030,13 +2039,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="43" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -2046,9 +2055,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="58"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -2056,9 +2065,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="58"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -2066,9 +2075,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -2078,9 +2087,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="58"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -2088,10 +2097,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="45" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -2104,8 +2113,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -2116,10 +2125,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -2132,8 +2141,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -2144,13 +2153,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="45" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2162,9 +2171,9 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="44"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
@@ -2172,8 +2181,8 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2200,10 +2209,10 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="45" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -2216,8 +2225,8 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="39" t="s">
         <v>16</v>
       </c>
@@ -2250,10 +2259,10 @@
       </c>
     </row>
     <row r="39" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="45" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="39" t="s">
@@ -2270,8 +2279,8 @@
       </c>
     </row>
     <row r="40" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="39" t="s">
         <v>16</v>
       </c>
@@ -2286,10 +2295,10 @@
       </c>
     </row>
     <row r="41" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="45" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="39" t="s">
@@ -2304,8 +2313,8 @@
       </c>
     </row>
     <row r="42" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="39" t="s">
         <v>16</v>
       </c>
@@ -2318,10 +2327,10 @@
       </c>
     </row>
     <row r="43" spans="2:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="39" t="s">
@@ -2336,8 +2345,8 @@
       </c>
     </row>
     <row r="44" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="39" t="s">
         <v>19</v>
       </c>
@@ -2399,37 +2408,48 @@
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="2:7" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="40" t="s">
+    <row r="48" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="40"/>
-      <c r="F48" s="59" t="s">
+      <c r="E48" s="38"/>
+      <c r="F48" s="38" t="s">
         <v>111</v>
+      </c>
+      <c r="G48" s="38"/>
+    </row>
+    <row r="49" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="171.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="38"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B41:B42"/>
@@ -2446,6 +2466,20 @@
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="117">
   <si>
     <t>Team Rules</t>
   </si>
@@ -441,6 +441,17 @@
 Hiep: Phuc xong roi H review cho nó nhé, review usecase truoc (7/7) hen :x
 Huy: sửa 2 view (7/7)
 Giang: code như điên :))</t>
+  </si>
+  <si>
+    <t>Thứ hai
+9/7/2012</t>
+  </si>
+  <si>
+    <t>Sửa bài</t>
+  </si>
+  <si>
+    <t>Thứ ba
+10/7/2012</t>
   </si>
 </sst>
 </file>
@@ -1143,52 +1154,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1727,10 +1738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B47" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,13 +1781,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="45" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1788,9 +1799,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="57"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="49"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1798,9 +1809,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="50"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1810,9 +1821,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="51" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="48" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1824,9 +1835,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="57"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1838,9 +1849,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="49"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1848,9 +1859,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="57"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="49"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1858,9 +1869,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="49"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1868,9 +1879,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="49"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1880,9 +1891,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1894,13 +1905,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="43" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1913,9 +1924,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1924,9 +1935,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1935,9 +1946,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1965,10 +1976,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1981,8 +1992,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -1995,8 +2006,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -2009,10 +2020,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -2027,8 +2038,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -2039,13 +2050,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="57" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -2055,9 +2066,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="44"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -2065,9 +2076,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="44"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -2075,9 +2086,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="43" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -2087,9 +2098,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="44"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -2097,10 +2108,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -2113,8 +2124,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -2125,10 +2136,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -2141,8 +2152,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -2153,13 +2164,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2171,9 +2182,9 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="46"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
@@ -2181,8 +2192,8 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2209,10 +2220,10 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -2225,8 +2236,8 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="39" t="s">
         <v>16</v>
       </c>
@@ -2259,10 +2270,10 @@
       </c>
     </row>
     <row r="39" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="39" t="s">
@@ -2279,8 +2290,8 @@
       </c>
     </row>
     <row r="40" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="39" t="s">
         <v>16</v>
       </c>
@@ -2295,10 +2306,10 @@
       </c>
     </row>
     <row r="41" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="39" t="s">
@@ -2313,8 +2324,8 @@
       </c>
     </row>
     <row r="42" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="39" t="s">
         <v>16</v>
       </c>
@@ -2327,10 +2338,10 @@
       </c>
     </row>
     <row r="43" spans="2:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="39" t="s">
@@ -2345,8 +2356,8 @@
       </c>
     </row>
     <row r="44" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="39" t="s">
         <v>19</v>
       </c>
@@ -2448,8 +2459,118 @@
         <v>113</v>
       </c>
     </row>
+    <row r="51" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="38"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+    </row>
+    <row r="54" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+    </row>
+    <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+    </row>
+    <row r="56" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="38"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+    </row>
+    <row r="57" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="38"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+    </row>
+    <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+    </row>
+    <row r="59" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+    </row>
+    <row r="60" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+    </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B41:B42"/>
@@ -2466,20 +2587,6 @@
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
   <si>
     <t>Team Rules</t>
   </si>
@@ -452,6 +452,25 @@
   <si>
     <t>Thứ ba
 10/7/2012</t>
+  </si>
+  <si>
+    <t>SAD team ass 1 và 2</t>
+  </si>
+  <si>
+    <t>SAD final</t>
+  </si>
+  <si>
+    <t>Huy: statics bỏ bớt use style, sửa C&amp;C, sequence, mapping</t>
+  </si>
+  <si>
+    <t>Giang code
+Hiệp: Test plan, viết test case theo giao diện</t>
+  </si>
+  <si>
+    <t>Thanh: Rational của Deployment View
+Huy: statics bỏ bớt use style, sửa C&amp;C, sequence, mapping
+Đạt: phần static thay bằng Analysis bao gồm 1 cái bảng có nội dung: Quality A - Ý tưởng thiết kế - Các view liên quan
+Mọi người update tổng số giờ cho final trong Effort Log</t>
   </si>
 </sst>
 </file>
@@ -1154,12 +1173,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1191,15 +1219,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1740,14 +1759,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.28515625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="47.140625" customWidth="1"/>
     <col min="6" max="6" width="43.7109375" customWidth="1"/>
     <col min="7" max="7" width="56.7109375" customWidth="1"/>
@@ -1781,13 +1801,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="48" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1799,9 +1819,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="54"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="46"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1809,9 +1829,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="54"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="47"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1821,9 +1841,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="54"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="48" t="s">
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="51" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1835,9 +1855,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="54"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="46"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="49"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1849,9 +1869,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="54"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="46"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1859,9 +1879,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="54"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="46"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="49"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1869,9 +1889,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="54"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="46"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1879,9 +1899,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="54"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="46"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1891,9 +1911,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="55"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="49"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1905,13 +1925,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="45" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1924,9 +1944,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1935,9 +1955,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1946,9 +1966,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1976,10 +1996,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="C18" s="45" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -1992,8 +2012,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -2006,8 +2026,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -2020,10 +2040,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -2038,8 +2058,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -2050,13 +2070,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="43" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -2066,9 +2086,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="58"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="44"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -2076,9 +2096,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="58"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -2086,9 +2106,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57" t="s">
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -2098,9 +2118,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="58"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -2108,10 +2128,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="43" t="s">
+      <c r="C28" s="45" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -2124,8 +2144,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -2136,10 +2156,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="43" t="s">
+      <c r="C30" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -2152,8 +2172,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="44"/>
-      <c r="C31" s="44"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -2164,13 +2184,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="45" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2182,9 +2202,9 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="44"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
@@ -2192,8 +2212,8 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2220,10 +2240,10 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="45" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -2236,8 +2256,8 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
       <c r="D37" s="39" t="s">
         <v>16</v>
       </c>
@@ -2270,10 +2290,10 @@
       </c>
     </row>
     <row r="39" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="45" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="39" t="s">
@@ -2290,8 +2310,8 @@
       </c>
     </row>
     <row r="40" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="39" t="s">
         <v>16</v>
       </c>
@@ -2306,10 +2326,10 @@
       </c>
     </row>
     <row r="41" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="45" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="39" t="s">
@@ -2324,8 +2344,8 @@
       </c>
     </row>
     <row r="42" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
       <c r="D42" s="39" t="s">
         <v>16</v>
       </c>
@@ -2338,10 +2358,10 @@
       </c>
     </row>
     <row r="43" spans="2:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="45" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="39" t="s">
@@ -2356,8 +2376,8 @@
       </c>
     </row>
     <row r="44" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="44"/>
-      <c r="C44" s="44"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="39" t="s">
         <v>19</v>
       </c>
@@ -2491,29 +2511,41 @@
         <v>115</v>
       </c>
     </row>
-    <row r="53" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="38"/>
       <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
+      <c r="D53" s="38" t="s">
+        <v>118</v>
+      </c>
       <c r="E53" s="38"/>
       <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-    </row>
-    <row r="54" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="38"/>
       <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
+      <c r="D54" s="38" t="s">
+        <v>117</v>
+      </c>
       <c r="E54" s="38"/>
       <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-    </row>
-    <row r="55" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B55" s="38"/>
       <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
+      <c r="D55" s="38" t="s">
+        <v>16</v>
+      </c>
       <c r="E55" s="38"/>
       <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
+      <c r="G55" s="38" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="56" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="38"/>
@@ -2557,20 +2589,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B41:B42"/>
@@ -2587,6 +2605,20 @@
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/trunk/HIT Team Schedule.xlsx
+++ b/trunk/HIT Team Schedule.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="128">
   <si>
     <t>Team Rules</t>
   </si>
@@ -471,6 +471,30 @@
 Huy: statics bỏ bớt use style, sửa C&amp;C, sequence, mapping
 Đạt: phần static thay bằng Analysis bao gồm 1 cái bảng có nội dung: Quality A - Ý tưởng thiết kế - Các view liên quan
 Mọi người update tổng số giờ cho final trong Effort Log</t>
+  </si>
+  <si>
+    <t>Gặp thầy Hùng Anh</t>
+  </si>
+  <si>
+    <t>Mọi người nhớ ghi Effort Log (boom đi)</t>
+  </si>
+  <si>
+    <t>Thứ năm
+2/8/2012</t>
+  </si>
+  <si>
+    <t>Thứ sáu
+3/8/2012</t>
+  </si>
+  <si>
+    <t>Chạy chương trình để:
+Thanh: User Guide
+Phúc: sửa Activity diagrams
+Đạt: vẽ sequence
+Giệp: Viết Test Case</t>
+  </si>
+  <si>
+    <t>Viết thư hỏi thầy Phụng</t>
   </si>
 </sst>
 </file>
@@ -1075,7 +1099,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1173,53 +1197,56 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1760,7 +1787,7 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,13 +1828,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="45" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -1819,9 +1846,9 @@
       <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="57"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="49"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="46"/>
       <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
@@ -1829,9 +1856,9 @@
       <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="57"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="50"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="47"/>
       <c r="E5" s="6" t="s">
         <v>17</v>
       </c>
@@ -1841,9 +1868,9 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="57"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="51" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="48" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -1855,9 +1882,9 @@
       <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:8" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="57"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="5" t="s">
         <v>22</v>
       </c>
@@ -1869,9 +1896,9 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="57"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="49"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="46"/>
       <c r="E8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1879,9 +1906,9 @@
       <c r="G8" s="22"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="57"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="49"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1889,9 +1916,9 @@
       <c r="G9" s="22"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="57"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="49"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="46"/>
       <c r="E10" s="5" t="s">
         <v>25</v>
       </c>
@@ -1899,9 +1926,9 @@
       <c r="G10" s="22"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="57"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="49"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="5" t="s">
         <v>26</v>
       </c>
@@ -1911,9 +1938,9 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="58"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="52"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="13" t="s">
         <v>27</v>
       </c>
@@ -1925,13 +1952,13 @@
     </row>
     <row r="13" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D13" s="43" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="20" t="s">
@@ -1944,9 +1971,9 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
       <c r="E14" s="15" t="s">
         <v>35</v>
       </c>
@@ -1955,9 +1982,9 @@
     </row>
     <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
       <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
@@ -1966,9 +1993,9 @@
     </row>
     <row r="16" spans="1:8" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
@@ -1996,10 +2023,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="43" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="39" t="s">
@@ -2012,8 +2039,8 @@
       <c r="G18" s="38"/>
     </row>
     <row r="19" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
       <c r="D19" s="39" t="s">
         <v>30</v>
       </c>
@@ -2026,8 +2053,8 @@
       <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="39" t="s">
         <v>16</v>
       </c>
@@ -2040,10 +2067,10 @@
       <c r="G20" s="38"/>
     </row>
     <row r="21" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="39" t="s">
@@ -2058,8 +2085,8 @@
       </c>
     </row>
     <row r="22" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="39" t="s">
         <v>19</v>
       </c>
@@ -2070,13 +2097,13 @@
       </c>
     </row>
     <row r="23" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="43" t="s">
+      <c r="D23" s="57" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="38" t="s">
@@ -2086,9 +2113,9 @@
       <c r="G23" s="38"/>
     </row>
     <row r="24" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="44"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="38" t="s">
         <v>60</v>
       </c>
@@ -2096,9 +2123,9 @@
       <c r="G24" s="38"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="44"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="58"/>
       <c r="E25" s="40" t="s">
         <v>61</v>
       </c>
@@ -2106,9 +2133,9 @@
       <c r="G25" s="38"/>
     </row>
     <row r="26" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="43" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="38" t="s">
@@ -2118,9 +2145,9 @@
       <c r="G26" s="38"/>
     </row>
     <row r="27" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="44"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="38" t="s">
         <v>59</v>
       </c>
@@ -2128,10 +2155,10 @@
       <c r="G27" s="38"/>
     </row>
     <row r="28" spans="2:7" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -2144,8 +2171,8 @@
       <c r="G28" s="38"/>
     </row>
     <row r="29" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
       <c r="D29" s="39" t="s">
         <v>19</v>
       </c>
@@ -2156,10 +2183,10 @@
       <c r="G29" s="38"/>
     </row>
     <row r="30" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="43" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D30" s="39" t="s">
@@ -2172,8 +2199,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="39" t="s">
         <v>16</v>
       </c>
@@ -2184,13 +2211,13 @@
       </c>
     </row>
     <row r="32" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="45" t="s">
+      <c r="D32" s="43" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="38" t="s">
@@ -2202,9 +2229,9 @@
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="46"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="44"/>
       <c r="E33" s="38" t="s">
         <v>71</v>
       </c>
@@ -2212,8 +2239,8 @@
       <c r="G33" s="38"/>
     </row>
     <row r="34" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="56"/>
       <c r="D34" s="39" t="s">
         <v>19</v>
       </c>
@@ -2240,10 +2267,10 @@
       <c r="G35" s="38"/>
     </row>
     <row r="36" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="43" t="s">
         <v>7</v>
       </c>
       <c r="D36" s="39" t="s">
@@ -2256,8 +2283,8 @@
       </c>
     </row>
     <row r="37" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="46"/>
-      <c r="C37" s="46"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="39" t="s">
         <v>16</v>
       </c>
@@ -2290,10 +2317,10 @@
       </c>
     </row>
     <row r="39" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D39" s="39" t="s">
@@ -2310,8 +2337,8 @@
       </c>
     </row>
     <row r="40" spans="2:7" ht="100.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="46"/>
-      <c r="C40" s="46"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
       <c r="D40" s="39" t="s">
         <v>16</v>
       </c>
@@ -2326,10 +2353,10 @@
       </c>
     </row>
     <row r="41" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D41" s="39" t="s">
@@ -2344,8 +2371,8 @@
       </c>
     </row>
     <row r="42" spans="2:7" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
       <c r="D42" s="39" t="s">
         <v>16</v>
       </c>
@@ -2358,10 +2385,10 @@
       </c>
     </row>
     <row r="43" spans="2:7" ht="86.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="43" t="s">
         <v>44</v>
       </c>
       <c r="D43" s="39" t="s">
@@ -2376,8 +2403,8 @@
       </c>
     </row>
     <row r="44" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="46"/>
-      <c r="C44" s="46"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="39" t="s">
         <v>19</v>
       </c>
@@ -2547,20 +2574,34 @@
         <v>120</v>
       </c>
     </row>
-    <row r="56" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="38"/>
+    <row r="56" spans="2:7" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="59" t="s">
+        <v>124</v>
+      </c>
       <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
+      <c r="D56" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>123</v>
+      </c>
       <c r="G56" s="38"/>
     </row>
-    <row r="57" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="38"/>
+    <row r="57" spans="2:7" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="38" t="s">
+        <v>125</v>
+      </c>
       <c r="C57" s="38"/>
       <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
+      <c r="E57" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>127</v>
+      </c>
       <c r="G57" s="38"/>
     </row>
     <row r="58" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2589,6 +2630,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="B41:B42"/>
@@ -2605,20 +2660,6 @@
     <mergeCell ref="D23:D25"/>
     <mergeCell ref="C23:C27"/>
     <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="C32:C34"/>
-    <mergeCell ref="B32:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
